--- a/js.xlsx
+++ b/js.xlsx
@@ -12,9 +12,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CHI Checklist + html'!$B$2:$G$51</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
@@ -1721,14 +1718,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1769,6 +1760,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="351">
@@ -2124,32 +2121,7 @@
     <cellStyle name="Título 2" xfId="349"/>
     <cellStyle name="Título 3" xfId="350"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2173,25 +2145,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SAPChecklist"/>
-      <sheetName val="ARG Checklist"/>
-      <sheetName val="CHI Checklist"/>
-      <sheetName val="BPCChecklist"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9:V173"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2490,10 +2443,10 @@
     <col min="1" max="1" width="17.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="2" style="6" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="55" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="6" style="6" customWidth="1"/>
@@ -2519,13 +2472,13 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
-      <c r="I2" s="62">
+      <c r="I2" s="60">
         <v>30</v>
       </c>
-      <c r="J2" s="62">
+      <c r="J2" s="60">
         <v>55</v>
       </c>
-      <c r="T2" s="61"/>
+      <c r="T2" s="59"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="B3" s="14" t="s">
@@ -2577,7 +2530,7 @@
         <f t="shared" ref="J4:J50" si="1">LEN(E4)</f>
         <v>39</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="56">
         <f>+L3+1</f>
         <v>2</v>
       </c>
@@ -2605,8 +2558,8 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="L5" s="58">
-        <f t="shared" ref="L5:L37" si="2">+L4+1</f>
+      <c r="L5" s="56">
+        <f t="shared" ref="L5:L6" si="2">+L4+1</f>
         <v>3</v>
       </c>
     </row>
@@ -2635,7 +2588,7 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="56">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -2668,8 +2621,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
     </row>
     <row r="8" spans="1:22" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="21" t="s">
@@ -2699,8 +2652,8 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1">
       <c r="B9" s="14" t="s">
@@ -2725,7 +2678,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="56">
         <f>+L6+1</f>
         <v>5</v>
       </c>
@@ -2747,10 +2700,10 @@
       <c r="Q9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="60">
+      <c r="T9" s="58">
         <v>5</v>
       </c>
-      <c r="U9" s="60">
+      <c r="U9" s="58">
         <v>1</v>
       </c>
       <c r="V9" s="10" t="str">
@@ -2781,23 +2734,23 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="L10" s="58">
-        <f>+L9+1</f>
+      <c r="L10" s="56">
+        <f t="shared" ref="L10:L27" si="3">+L9+1</f>
         <v>6</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N10" s="10" t="str">
-        <f t="shared" ref="N10:N39" si="3">"&lt;div class='category'&gt;"&amp;B10&amp;"  &lt;/div&gt;&lt;div class='title'&gt;"&amp;D10&amp;"&lt;/div&gt;"</f>
+        <f t="shared" ref="N10:N39" si="4">"&lt;div class='category'&gt;"&amp;B10&amp;"  &lt;/div&gt;&lt;div class='title'&gt;"&amp;D10&amp;"&lt;/div&gt;"</f>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;Inventories: Physical check&lt;/div&gt;</v>
       </c>
       <c r="O10" s="10" t="str">
-        <f t="shared" ref="O10:O39" si="4">"&lt;div class='description'&gt;"&amp;E10&amp;"&lt;/div&gt;"</f>
+        <f t="shared" ref="O10:O39" si="5">"&lt;div class='description'&gt;"&amp;E10&amp;"&lt;/div&gt;"</f>
         <v>&lt;div class='description'&gt;Inventario + Inventario en Consignacion&lt;/div&gt;</v>
       </c>
       <c r="P10" s="10" t="str">
-        <f t="shared" ref="P10:P39" si="5">"&lt;i id='task"&amp;TEXT(L10,"00")&amp;"' onclick='changeStatusTask"&amp;TEXT(L10,"00")&amp;"()'&gt;&lt;/i&gt;&lt;div id='statusTextTask"&amp;TEXT(L10,"00")&amp;"' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask"&amp;TEXT(L10,"00")&amp;"'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask"&amp;TEXT(L10,"00")&amp;"()'&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="P10:P39" si="6">"&lt;i id='task"&amp;TEXT(L10,"00")&amp;"' onclick='changeStatusTask"&amp;TEXT(L10,"00")&amp;"()'&gt;&lt;/i&gt;&lt;div id='statusTextTask"&amp;TEXT(L10,"00")&amp;"' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask"&amp;TEXT(L10,"00")&amp;"'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask"&amp;TEXT(L10,"00")&amp;"()'&gt;&lt;/div&gt;"</f>
         <v>&lt;i id='task06' onclick='changeStatusTask06()'&gt;&lt;/i&gt;&lt;div id='statusTextTask06' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask06'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask06()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q10" s="27" t="s">
@@ -2841,34 +2794,34 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L11" s="58">
-        <f>+L10+1</f>
+      <c r="L11" s="56">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;In-Transit Goods postings&lt;/div&gt;</v>
       </c>
       <c r="O11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Provision de Mercaderia en transito&lt;/div&gt;</v>
       </c>
       <c r="P11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task07' onclick='changeStatusTask07()'&gt;&lt;/i&gt;&lt;div id='statusTextTask07' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask07'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask07()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q11" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" ref="T11:T43" si="6">IF(U10&lt;5,T10,T10+1)</f>
+        <f t="shared" ref="T11:T43" si="7">IF(U10&lt;5,T10,T10+1)</f>
         <v>5</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" ref="U11:U43" si="7">IF(U10&lt;5,U10+1,1)</f>
+        <f t="shared" ref="U11:U43" si="8">IF(U10&lt;5,U10+1,1)</f>
         <v>3</v>
       </c>
       <c r="V11" s="10" t="str">
@@ -2901,34 +2854,34 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="L12" s="58">
-        <f>+L11+1</f>
+      <c r="L12" s="56">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;Obsolescense Accrual posting&lt;/div&gt;</v>
       </c>
       <c r="O12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Posting de Provision Obsoletos - TRIMESTRAL.&lt;/div&gt;</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task08' onclick='changeStatusTask08()'&gt;&lt;/i&gt;&lt;div id='statusTextTask08' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask08'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask08()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q12" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V12" s="10" t="str">
@@ -2959,34 +2912,34 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="L13" s="58">
-        <f>+L12+1</f>
+      <c r="L13" s="56">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N13" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Vendor Invoices: Posting check&lt;/div&gt;</v>
       </c>
       <c r="O13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Facturas de compras e Intercompanies&lt;/div&gt;</v>
       </c>
       <c r="P13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task09' onclick='changeStatusTask09()'&gt;&lt;/i&gt;&lt;div id='statusTextTask09' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask09'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask09()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q13" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V13" s="10" t="str">
@@ -3019,38 +2972,38 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="L14" s="58">
-        <f>+L13+1</f>
+      <c r="L14" s="56">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N14" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;MIROs: Posting check&lt;/div&gt;</v>
       </c>
       <c r="O14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Revision de la cuenta de GRIR 211200. Debe ser cero.&lt;/div&gt;</v>
       </c>
       <c r="P14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task10' onclick='changeStatusTask10()'&gt;&lt;/i&gt;&lt;div id='statusTextTask10' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask10'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask10()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q14" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V14" s="10" t="str">
-        <f t="shared" ref="V14:V77" si="8">VLOOKUP(T14,$L:$Q,U14+1,FALSE)</f>
+        <f t="shared" ref="V14:V77" si="9">VLOOKUP(T14,$L:$Q,U14+1,FALSE)</f>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -3082,38 +3035,38 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="L15" s="58">
-        <f>+L14+1</f>
+      <c r="L15" s="56">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Interest / Other payables&lt;/div&gt;</v>
       </c>
       <c r="O15" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Intereses interco. Otros payables reales.&lt;/div&gt;</v>
       </c>
       <c r="P15" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task11' onclick='changeStatusTask11()'&gt;&lt;/i&gt;&lt;div id='statusTextTask11' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask11'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask11()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q15" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;Inventories: Physical check&lt;/div&gt;</v>
       </c>
     </row>
@@ -3142,38 +3095,38 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="L16" s="58">
-        <f>+L15+1</f>
+      <c r="L16" s="56">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Payment Runs&lt;/div&gt;</v>
       </c>
       <c r="O16" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Pagos confirmados y pagados&lt;/div&gt;</v>
       </c>
       <c r="P16" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task12' onclick='changeStatusTask12()'&gt;&lt;/i&gt;&lt;div id='statusTextTask12' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask12'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask12()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q16" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Inventario + Inventario en Consignacion&lt;/div&gt;</v>
       </c>
     </row>
@@ -3205,38 +3158,38 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="L17" s="58">
-        <f>+L16+1</f>
+      <c r="L17" s="56">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Intercompany Recon in USD&lt;/div&gt;</v>
       </c>
       <c r="O17" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Cruce de cuentas por pagar. Confirmacion por email.&lt;/div&gt;</v>
       </c>
       <c r="P17" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task13' onclick='changeStatusTask13()'&gt;&lt;/i&gt;&lt;div id='statusTextTask13' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask13'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask13()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q17" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task06' onclick='changeStatusTask06()'&gt;&lt;/i&gt;&lt;div id='statusTextTask06' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask06'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask06()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -3268,38 +3221,38 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="L18" s="58">
-        <f>+L17+1</f>
+      <c r="L18" s="56">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Intercompany a cobrar&lt;/div&gt;</v>
       </c>
       <c r="O18" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Enviar pedido de confirmacion al pais correspondiente.&lt;/div&gt;</v>
       </c>
       <c r="P18" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task14' onclick='changeStatusTask14()'&gt;&lt;/i&gt;&lt;div id='statusTextTask14' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask14'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask14()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q18" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V18" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -3328,38 +3281,38 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L19" s="58">
-        <f>+L18+1</f>
+      <c r="L19" s="56">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Other suppliers Recons&lt;/div&gt;</v>
       </c>
       <c r="O19" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Cruce de cuentas por pagar con proveedores&lt;/div&gt;</v>
       </c>
       <c r="P19" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task15' onclick='changeStatusTask15()'&gt;&lt;/i&gt;&lt;div id='statusTextTask15' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask15'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask15()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q19" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V19" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -3386,38 +3339,38 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="L20" s="58">
-        <f>+L19+1</f>
+      <c r="L20" s="56">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;TAX  &lt;/div&gt;&lt;div class='title'&gt;Tax Position&lt;/div&gt;</v>
       </c>
       <c r="O20" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Declaraciones impositivas de mes curso&lt;/div&gt;</v>
       </c>
       <c r="P20" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task16' onclick='changeStatusTask16()'&gt;&lt;/i&gt;&lt;div id='statusTextTask16' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask16'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask16()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q20" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V20" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;In-Transit Goods postings&lt;/div&gt;</v>
       </c>
     </row>
@@ -3446,38 +3399,38 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="L21" s="58">
-        <f>+L20+1</f>
+      <c r="L21" s="56">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;SALES  &lt;/div&gt;&lt;div class='title'&gt;Tax on Sales accrual&lt;/div&gt;</v>
       </c>
       <c r="O21" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Calculo de provision Impuestos sobre las ventas.&lt;/div&gt;</v>
       </c>
       <c r="P21" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task17' onclick='changeStatusTask17()'&gt;&lt;/i&gt;&lt;div id='statusTextTask17' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask17'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask17()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q21" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V21" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Provision de Mercaderia en transito&lt;/div&gt;</v>
       </c>
     </row>
@@ -3506,38 +3459,38 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L22" s="58">
-        <f>+L21+1</f>
+      <c r="L22" s="56">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Future Import Charges&lt;/div&gt;</v>
       </c>
       <c r="O22" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Provison de gastos de importaciones&lt;/div&gt;</v>
       </c>
       <c r="P22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task18' onclick='changeStatusTask18()'&gt;&lt;/i&gt;&lt;div id='statusTextTask18' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask18'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask18()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q22" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V22" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task07' onclick='changeStatusTask07()'&gt;&lt;/i&gt;&lt;div id='statusTextTask07' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask07'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask07()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -3567,38 +3520,38 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L23" s="58">
-        <f>+L22+1</f>
+      <c r="L23" s="56">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N23" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;AR  &lt;/div&gt;&lt;div class='title'&gt;Bad debt Accrual Posting&lt;/div&gt;</v>
       </c>
       <c r="O23" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Provision de deudores incobrables. TRIMESTRAL&lt;/div&gt;</v>
       </c>
       <c r="P23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task19' onclick='changeStatusTask19()'&gt;&lt;/i&gt;&lt;div id='statusTextTask19' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask19'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask19()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q23" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V23" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -3628,38 +3581,38 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="L24" s="58">
-        <f>+L23+1</f>
+      <c r="L24" s="56">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N24" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Insurance accruals&lt;/div&gt;</v>
       </c>
       <c r="O24" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Calculo y posting de intereses y seguros devengados&lt;/div&gt;</v>
       </c>
       <c r="P24" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task20' onclick='changeStatusTask20()'&gt;&lt;/i&gt;&lt;div id='statusTextTask20' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask20'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask20()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q24" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V24" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -3689,38 +3642,38 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L25" s="58">
-        <f>+L24+1</f>
+      <c r="L25" s="56">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Audit fees, Transfer price.&lt;/div&gt;</v>
       </c>
       <c r="O25" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Provision de Auditoria&lt;/div&gt;</v>
       </c>
       <c r="P25" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task21' onclick='changeStatusTask21()'&gt;&lt;/i&gt;&lt;div id='statusTextTask21' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask21'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask21()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q25" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V25" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;INV  &lt;/div&gt;&lt;div class='title'&gt;Obsolescense Accrual posting&lt;/div&gt;</v>
       </c>
     </row>
@@ -3749,38 +3702,38 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L26" s="58">
-        <f>+L25+1</f>
+      <c r="L26" s="56">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N26" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Salaries and Social charges&lt;/div&gt;</v>
       </c>
       <c r="O26" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Asiento de sueldos - SAC&lt;/div&gt;</v>
       </c>
       <c r="P26" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task22' onclick='changeStatusTask22()'&gt;&lt;/i&gt;&lt;div id='statusTextTask22' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask22'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask22()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q26" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V26" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Posting de Provision Obsoletos - TRIMESTRAL.&lt;/div&gt;</v>
       </c>
     </row>
@@ -3809,38 +3762,38 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L27" s="58">
-        <f>+L26+1</f>
+      <c r="L27" s="56">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N27" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Bonus accruals&lt;/div&gt;</v>
       </c>
       <c r="O27" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Provision Bonus&lt;/div&gt;</v>
       </c>
       <c r="P27" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task23' onclick='changeStatusTask23()'&gt;&lt;/i&gt;&lt;div id='statusTextTask23' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask23'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask23()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q27" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V27" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task08' onclick='changeStatusTask08()'&gt;&lt;/i&gt;&lt;div id='statusTextTask08' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask08'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask08()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -3870,21 +3823,21 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="T28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V28" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -3916,21 +3869,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L29" s="58"/>
+      <c r="L29" s="56"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="T29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V29" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -3960,21 +3913,21 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="56"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="T30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V30" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Vendor Invoices: Posting check&lt;/div&gt;</v>
       </c>
     </row>
@@ -3995,7 +3948,7 @@
       <c r="F31" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="61">
         <v>0</v>
       </c>
       <c r="I31" s="6">
@@ -4006,21 +3959,21 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="L31" s="58"/>
+      <c r="L31" s="56"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="T31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V31" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Facturas de compras e Intercompanies&lt;/div&gt;</v>
       </c>
     </row>
@@ -4041,7 +3994,7 @@
       <c r="F32" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="61"/>
       <c r="I32" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4050,21 +4003,21 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="L32" s="58"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="T32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V32" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task09' onclick='changeStatusTask09()'&gt;&lt;/i&gt;&lt;div id='statusTextTask09' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask09'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask09()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -4085,7 +4038,7 @@
       <c r="F33" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="61"/>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4094,21 +4047,21 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="L33" s="58"/>
+      <c r="L33" s="56"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="T33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V33" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -4129,7 +4082,7 @@
       <c r="F34" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="61"/>
       <c r="I34" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4138,21 +4091,21 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="L34" s="58"/>
+      <c r="L34" s="56"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="T34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V34" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -4182,21 +4135,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L35" s="58"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="T35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V35" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;MIROs: Posting check&lt;/div&gt;</v>
       </c>
     </row>
@@ -4204,14 +4157,14 @@
       <c r="B36" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="30" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="62" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="32">
@@ -4225,37 +4178,37 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="56">
         <v>24</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N36" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Cash and Banks: Balance check&lt;/div&gt;</v>
       </c>
       <c r="O36" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Caja y Bancos cruzar con Tesoreria&lt;/div&gt;</v>
       </c>
       <c r="P36" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task24' onclick='changeStatusTask24()'&gt;&lt;/i&gt;&lt;div id='statusTextTask24' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask24'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask24()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q36" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V36" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Revision de la cuenta de GRIR 211200. Debe ser cero.&lt;/div&gt;</v>
       </c>
     </row>
@@ -4263,14 +4216,14 @@
       <c r="B37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="32">
         <v>0</v>
       </c>
@@ -4282,7 +4235,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="56">
         <f>+L36+1</f>
         <v>25</v>
       </c>
@@ -4290,30 +4243,30 @@
         <v>99</v>
       </c>
       <c r="N37" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Warranty Deposits&lt;/div&gt;</v>
       </c>
       <c r="O37" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Depositos en garantia&lt;/div&gt;</v>
       </c>
       <c r="P37" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task25' onclick='changeStatusTask25()'&gt;&lt;/i&gt;&lt;div id='statusTextTask25' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask25'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask25()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q37" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V37" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task10' onclick='changeStatusTask10()'&gt;&lt;/i&gt;&lt;div id='statusTextTask10' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask10'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask10()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -4321,14 +4274,14 @@
       <c r="B38" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="30" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="32">
         <v>0</v>
       </c>
@@ -4340,7 +4293,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="56">
         <f>+L37+1</f>
         <v>26</v>
       </c>
@@ -4348,30 +4301,30 @@
         <v>99</v>
       </c>
       <c r="N38" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Credits: Balance check&lt;/div&gt;</v>
       </c>
       <c r="O38" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;Creditos impositivos - posiciones meses anteriores&lt;/div&gt;</v>
       </c>
       <c r="P38" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task26' onclick='changeStatusTask26()'&gt;&lt;/i&gt;&lt;div id='statusTextTask26' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask26'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask26()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q38" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V38" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -4379,14 +4332,14 @@
       <c r="B39" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="45"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="30" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="32">
         <v>0</v>
       </c>
@@ -4398,7 +4351,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L39" s="56">
         <f>+L38+1</f>
         <v>27</v>
       </c>
@@ -4406,30 +4359,30 @@
         <v>99</v>
       </c>
       <c r="N39" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;VAT Credits - Liabilities&lt;/div&gt;</v>
       </c>
       <c r="O39" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;div class='description'&gt;IVA Debito Fiscal del periodo&lt;/div&gt;</v>
       </c>
       <c r="P39" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>&lt;i id='task27' onclick='changeStatusTask27()'&gt;&lt;/i&gt;&lt;div id='statusTextTask27' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask27'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask27()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q39" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="V39" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -4437,14 +4390,14 @@
       <c r="B40" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="45"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="32">
         <v>0</v>
       </c>
@@ -4456,38 +4409,38 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L40" s="58">
-        <f t="shared" ref="L40:L50" si="9">+L39+1</f>
+      <c r="L40" s="56">
+        <f t="shared" ref="L40:L49" si="10">+L39+1</f>
         <v>28</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N40" s="10" t="str">
-        <f t="shared" ref="N40:N50" si="10">"&lt;div class='category'&gt;"&amp;B40&amp;"  &lt;/div&gt;&lt;div class='title'&gt;"&amp;D40&amp;"&lt;/div&gt;"</f>
+        <f t="shared" ref="N40:N49" si="11">"&lt;div class='category'&gt;"&amp;B40&amp;"  &lt;/div&gt;&lt;div class='title'&gt;"&amp;D40&amp;"&lt;/div&gt;"</f>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Prepayments&lt;/div&gt;</v>
       </c>
       <c r="O40" s="10" t="str">
-        <f t="shared" ref="O40:O50" si="11">"&lt;div class='description'&gt;"&amp;E40&amp;"&lt;/div&gt;"</f>
+        <f t="shared" ref="O40:O49" si="12">"&lt;div class='description'&gt;"&amp;E40&amp;"&lt;/div&gt;"</f>
         <v>&lt;div class='description'&gt;Anticipo de impuestos&lt;/div&gt;</v>
       </c>
       <c r="P40" s="10" t="str">
-        <f t="shared" ref="P40:P50" si="12">"&lt;i id='task"&amp;TEXT(L40,"00")&amp;"' onclick='changeStatusTask"&amp;TEXT(L40,"00")&amp;"()'&gt;&lt;/i&gt;&lt;div id='statusTextTask"&amp;TEXT(L40,"00")&amp;"' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask"&amp;TEXT(L40,"00")&amp;"'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask"&amp;TEXT(L40,"00")&amp;"()'&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="P40:P49" si="13">"&lt;i id='task"&amp;TEXT(L40,"00")&amp;"' onclick='changeStatusTask"&amp;TEXT(L40,"00")&amp;"()'&gt;&lt;/i&gt;&lt;div id='statusTextTask"&amp;TEXT(L40,"00")&amp;"' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask"&amp;TEXT(L40,"00")&amp;"'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask"&amp;TEXT(L40,"00")&amp;"()'&gt;&lt;/div&gt;"</f>
         <v>&lt;i id='task28' onclick='changeStatusTask28()'&gt;&lt;/i&gt;&lt;div id='statusTextTask28' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask28'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask28()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q40" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="V40" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Interest / Other payables&lt;/div&gt;</v>
       </c>
     </row>
@@ -4495,14 +4448,14 @@
       <c r="B41" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="32">
         <v>0</v>
       </c>
@@ -4514,38 +4467,38 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L41" s="58">
-        <f t="shared" si="9"/>
+      <c r="L41" s="56">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N41" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Withholdings&lt;/div&gt;</v>
       </c>
       <c r="O41" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Anticipo de impuestos&lt;/div&gt;</v>
       </c>
       <c r="P41" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task29' onclick='changeStatusTask29()'&gt;&lt;/i&gt;&lt;div id='statusTextTask29' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask29'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask29()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q41" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="V41" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Intereses interco. Otros payables reales.&lt;/div&gt;</v>
       </c>
     </row>
@@ -4553,14 +4506,14 @@
       <c r="B42" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="32">
         <v>0</v>
       </c>
@@ -4572,38 +4525,38 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L42" s="58">
-        <f t="shared" si="9"/>
+      <c r="L42" s="56">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N42" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Inventory Prepayments&lt;/div&gt;</v>
       </c>
       <c r="O42" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Anticipo a despachantes y aduana&lt;/div&gt;</v>
       </c>
       <c r="P42" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task30' onclick='changeStatusTask30()'&gt;&lt;/i&gt;&lt;div id='statusTextTask30' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask30'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask30()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q42" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="V42" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task11' onclick='changeStatusTask11()'&gt;&lt;/i&gt;&lt;div id='statusTextTask11' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask11'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask11()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -4611,14 +4564,14 @@
       <c r="B43" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="45"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="32">
         <v>0</v>
       </c>
@@ -4630,38 +4583,38 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L43" s="58">
-        <f t="shared" si="9"/>
+      <c r="L43" s="56">
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N43" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Suppliers Prepayments&lt;/div&gt;</v>
       </c>
       <c r="O43" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Anticipo a proveedores&lt;/div&gt;</v>
       </c>
       <c r="P43" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task31' onclick='changeStatusTask31()'&gt;&lt;/i&gt;&lt;div id='statusTextTask31' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask31'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask31()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q43" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="V43" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -4669,14 +4622,14 @@
       <c r="B44" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="30" t="s">
         <v>122</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="46"/>
+      <c r="F44" s="62"/>
       <c r="G44" s="32">
         <v>0</v>
       </c>
@@ -4688,38 +4641,38 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="L44" s="58">
-        <f t="shared" si="9"/>
+      <c r="L44" s="56">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N44" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Employee Prepayments&lt;/div&gt;</v>
       </c>
       <c r="O44" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Anticipo a empleados por viajes &lt;/div&gt;</v>
       </c>
       <c r="P44" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task32' onclick='changeStatusTask32()'&gt;&lt;/i&gt;&lt;div id='statusTextTask32' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask32'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask32()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q44" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" ref="T44:T107" si="13">IF(U43&lt;5,T43,T43+1)</f>
+        <f t="shared" ref="T44:T107" si="14">IF(U43&lt;5,T43,T43+1)</f>
         <v>12</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" ref="U44:U107" si="14">IF(U43&lt;5,U43+1,1)</f>
+        <f t="shared" ref="U44:U107" si="15">IF(U43&lt;5,U43+1,1)</f>
         <v>1</v>
       </c>
       <c r="V44" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -4727,14 +4680,14 @@
       <c r="B45" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="30" t="s">
         <v>123</v>
       </c>
       <c r="E45" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="32">
         <v>0</v>
       </c>
@@ -4746,38 +4699,38 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="L45" s="58">
-        <f t="shared" si="9"/>
+      <c r="L45" s="56">
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N45" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Corporate card Prepayments&lt;/div&gt;</v>
       </c>
       <c r="O45" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Anticipo empleados  - tarjetas coorporativos por rendir&lt;/div&gt;</v>
       </c>
       <c r="P45" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task33' onclick='changeStatusTask33()'&gt;&lt;/i&gt;&lt;div id='statusTextTask33' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask33'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask33()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q45" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V45" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Payment Runs&lt;/div&gt;</v>
       </c>
     </row>
@@ -4785,14 +4738,14 @@
       <c r="B46" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="45"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="30" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="46"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="32">
         <v>0</v>
       </c>
@@ -4804,38 +4757,38 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="L46" s="58">
-        <f t="shared" si="9"/>
+      <c r="L46" s="56">
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N46" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Social Charges / Payroll Taxes&lt;/div&gt;</v>
       </c>
       <c r="O46" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Cargas Sociales y payroll taxes del periodo por pagar&lt;/div&gt;</v>
       </c>
       <c r="P46" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task34' onclick='changeStatusTask34()'&gt;&lt;/i&gt;&lt;div id='statusTextTask34' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask34'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask34()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q46" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T46" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V46" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Pagos confirmados y pagados&lt;/div&gt;</v>
       </c>
     </row>
@@ -4843,14 +4796,14 @@
       <c r="B47" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="45"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="32">
         <v>0</v>
       </c>
@@ -4862,38 +4815,38 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="L47" s="58">
-        <f t="shared" si="9"/>
+      <c r="L47" s="56">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N47" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Accounts Payables&lt;/div&gt;</v>
       </c>
       <c r="O47" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Provision de gastos por pagar&lt;/div&gt;</v>
       </c>
       <c r="P47" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task35' onclick='changeStatusTask35()'&gt;&lt;/i&gt;&lt;div id='statusTextTask35' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask35'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask35()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q47" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V47" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task12' onclick='changeStatusTask12()'&gt;&lt;/i&gt;&lt;div id='statusTextTask12' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask12'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask12()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -4908,7 +4861,7 @@
       <c r="E48" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="18">
@@ -4922,38 +4875,38 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L48" s="58">
-        <f t="shared" si="9"/>
+      <c r="L48" s="56">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M48" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N48" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;P&amp;L Final Overview&lt;/div&gt;</v>
       </c>
       <c r="O48" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Revision de Resultados del mes.&lt;/div&gt;</v>
       </c>
       <c r="P48" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task36' onclick='changeStatusTask36()'&gt;&lt;/i&gt;&lt;div id='statusTextTask36' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask36'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask36()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T48" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U48" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V48" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
@@ -4971,7 +4924,7 @@
       <c r="E49" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="48"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="18"/>
       <c r="I49" s="6">
         <f t="shared" si="0"/>
@@ -4981,38 +4934,38 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="L49" s="58">
-        <f t="shared" si="9"/>
+      <c r="L49" s="56">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>99</v>
       </c>
       <c r="N49" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Income Tax / Deferred Income&lt;/div&gt;</v>
       </c>
       <c r="O49" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>&lt;div class='description'&gt;Calculo de provision de Impuesto a la Renta TRIMESTRAL&lt;/div&gt;</v>
       </c>
       <c r="P49" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>&lt;i id='task37' onclick='changeStatusTask37()'&gt;&lt;/i&gt;&lt;div id='statusTextTask37' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask37'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask37()'&gt;&lt;/div&gt;</v>
       </c>
       <c r="Q49" s="27" t="s">
         <v>100</v>
       </c>
       <c r="T49" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U49" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V49" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -5020,20 +4973,20 @@
       <c r="A50" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50" t="s">
+      <c r="C50" s="47"/>
+      <c r="D50" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="50">
         <v>0</v>
       </c>
       <c r="I50" s="6">
@@ -5044,147 +4997,147 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L50" s="58"/>
+      <c r="L50" s="56"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="T50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U50" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V50" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Intercompany Recon in USD&lt;/div&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="T51" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U51" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V51" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Cruce de cuentas por pagar. Confirmacion por email.&lt;/div&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="T52" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V52" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task13' onclick='changeStatusTask13()'&gt;&lt;/i&gt;&lt;div id='statusTextTask13' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask13'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask13()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="T53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V53" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="T54" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V54" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="T55" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V55" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Intercompany a cobrar&lt;/div&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="T56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U56" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V56" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Enviar pedido de confirmacion al pais correspondiente.&lt;/div&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="T57" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U57" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V57" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task14' onclick='changeStatusTask14()'&gt;&lt;/i&gt;&lt;div id='statusTextTask14' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask14'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask14()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="T58" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V58" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="T59" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U59" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V59" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
@@ -5192,2496 +5145,2496 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
       <c r="T60" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V60" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Other suppliers Recons&lt;/div&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="T61" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V61" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Cruce de cuentas por pagar con proveedores&lt;/div&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="T62" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V62" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task15' onclick='changeStatusTask15()'&gt;&lt;/i&gt;&lt;div id='statusTextTask15' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask15'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask15()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="T63" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="U63" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V63" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="T64" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="U64" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V64" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="65" spans="20:22">
       <c r="T65" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="U65" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V65" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;TAX  &lt;/div&gt;&lt;div class='title'&gt;Tax Position&lt;/div&gt;</v>
       </c>
     </row>
     <row r="66" spans="20:22">
       <c r="T66" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="U66" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V66" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Declaraciones impositivas de mes curso&lt;/div&gt;</v>
       </c>
     </row>
     <row r="67" spans="20:22">
       <c r="T67" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V67" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task16' onclick='changeStatusTask16()'&gt;&lt;/i&gt;&lt;div id='statusTextTask16' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask16'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask16()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="68" spans="20:22">
       <c r="T68" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V68" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="69" spans="20:22">
       <c r="T69" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V69" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="70" spans="20:22">
       <c r="T70" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V70" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;SALES  &lt;/div&gt;&lt;div class='title'&gt;Tax on Sales accrual&lt;/div&gt;</v>
       </c>
     </row>
     <row r="71" spans="20:22">
       <c r="T71" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V71" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Calculo de provision Impuestos sobre las ventas.&lt;/div&gt;</v>
       </c>
     </row>
     <row r="72" spans="20:22">
       <c r="T72" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V72" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task17' onclick='changeStatusTask17()'&gt;&lt;/i&gt;&lt;div id='statusTextTask17' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask17'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask17()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="73" spans="20:22">
       <c r="T73" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V73" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="74" spans="20:22">
       <c r="T74" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V74" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="75" spans="20:22">
       <c r="T75" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V75" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='category'&gt;AP  &lt;/div&gt;&lt;div class='title'&gt;Future Import Charges&lt;/div&gt;</v>
       </c>
     </row>
     <row r="76" spans="20:22">
       <c r="T76" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V76" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;div class='description'&gt;Provison de gastos de importaciones&lt;/div&gt;</v>
       </c>
     </row>
     <row r="77" spans="20:22">
       <c r="T77" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V77" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>&lt;i id='task18' onclick='changeStatusTask18()'&gt;&lt;/i&gt;&lt;div id='statusTextTask18' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask18'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask18()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="78" spans="20:22">
       <c r="T78" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V78" s="10" t="str">
-        <f t="shared" ref="V78:V141" si="15">VLOOKUP(T78,$L:$Q,U78+1,FALSE)</f>
+        <f t="shared" ref="V78:V141" si="16">VLOOKUP(T78,$L:$Q,U78+1,FALSE)</f>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="79" spans="20:22">
       <c r="T79" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V79" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="80" spans="20:22">
       <c r="T80" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V80" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;AR  &lt;/div&gt;&lt;div class='title'&gt;Bad debt Accrual Posting&lt;/div&gt;</v>
       </c>
     </row>
     <row r="81" spans="20:22">
       <c r="T81" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V81" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Provision de deudores incobrables. TRIMESTRAL&lt;/div&gt;</v>
       </c>
     </row>
     <row r="82" spans="20:22">
       <c r="T82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V82" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task19' onclick='changeStatusTask19()'&gt;&lt;/i&gt;&lt;div id='statusTextTask19' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask19'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask19()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="83" spans="20:22">
       <c r="T83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U83" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V83" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="84" spans="20:22">
       <c r="T84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U84" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V84" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="85" spans="20:22">
       <c r="T85" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U85" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V85" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Insurance accruals&lt;/div&gt;</v>
       </c>
     </row>
     <row r="86" spans="20:22">
       <c r="T86" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V86" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Calculo y posting de intereses y seguros devengados&lt;/div&gt;</v>
       </c>
     </row>
     <row r="87" spans="20:22">
       <c r="T87" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V87" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task20' onclick='changeStatusTask20()'&gt;&lt;/i&gt;&lt;div id='statusTextTask20' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask20'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask20()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="88" spans="20:22">
       <c r="T88" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U88" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V88" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="89" spans="20:22">
       <c r="T89" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U89" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V89" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="90" spans="20:22">
       <c r="T90" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U90" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V90" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Audit fees, Transfer price.&lt;/div&gt;</v>
       </c>
     </row>
     <row r="91" spans="20:22">
       <c r="T91" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U91" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V91" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Provision de Auditoria&lt;/div&gt;</v>
       </c>
     </row>
     <row r="92" spans="20:22">
       <c r="T92" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V92" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task21' onclick='changeStatusTask21()'&gt;&lt;/i&gt;&lt;div id='statusTextTask21' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask21'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask21()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="93" spans="20:22">
       <c r="T93" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U93" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V93" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="94" spans="20:22">
       <c r="T94" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V94" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="95" spans="20:22">
       <c r="T95" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U95" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V95" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Salaries and Social charges&lt;/div&gt;</v>
       </c>
     </row>
     <row r="96" spans="20:22">
       <c r="T96" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U96" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V96" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Asiento de sueldos - SAC&lt;/div&gt;</v>
       </c>
     </row>
     <row r="97" spans="20:22">
       <c r="T97" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U97" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V97" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task22' onclick='changeStatusTask22()'&gt;&lt;/i&gt;&lt;div id='statusTextTask22' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask22'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask22()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="98" spans="20:22">
       <c r="T98" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="U98" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V98" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="99" spans="20:22">
       <c r="T99" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U99" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V99" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="100" spans="20:22">
       <c r="T100" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U100" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V100" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Bonus accruals&lt;/div&gt;</v>
       </c>
     </row>
     <row r="101" spans="20:22">
       <c r="T101" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V101" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Provision Bonus&lt;/div&gt;</v>
       </c>
     </row>
     <row r="102" spans="20:22">
       <c r="T102" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U102" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V102" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task23' onclick='changeStatusTask23()'&gt;&lt;/i&gt;&lt;div id='statusTextTask23' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask23'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask23()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="103" spans="20:22">
       <c r="T103" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U103" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="V103" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="104" spans="20:22">
       <c r="T104" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="V104" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="105" spans="20:22">
       <c r="T105" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U105" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="V105" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Cash and Banks: Balance check&lt;/div&gt;</v>
       </c>
     </row>
     <row r="106" spans="20:22">
       <c r="T106" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U106" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="V106" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;div class='description'&gt;Caja y Bancos cruzar con Tesoreria&lt;/div&gt;</v>
       </c>
     </row>
     <row r="107" spans="20:22">
       <c r="T107" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="V107" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;i id='task24' onclick='changeStatusTask24()'&gt;&lt;/i&gt;&lt;div id='statusTextTask24' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask24'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask24()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="108" spans="20:22">
       <c r="T108" s="6">
-        <f t="shared" ref="T108:T171" si="16">IF(U107&lt;5,T107,T107+1)</f>
+        <f t="shared" ref="T108:T171" si="17">IF(U107&lt;5,T107,T107+1)</f>
         <v>24</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" ref="U108:U171" si="17">IF(U107&lt;5,U107+1,1)</f>
+        <f t="shared" ref="U108:U171" si="18">IF(U107&lt;5,U107+1,1)</f>
         <v>5</v>
       </c>
       <c r="V108" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="109" spans="20:22">
       <c r="T109" s="6">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="U109" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V109" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="U109" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V109" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="110" spans="20:22">
       <c r="T110" s="6">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="U110" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V110" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="U110" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V110" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Warranty Deposits&lt;/div&gt;</v>
       </c>
     </row>
     <row r="111" spans="20:22">
       <c r="T111" s="6">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="U111" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V111" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="U111" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V111" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Depositos en garantia&lt;/div&gt;</v>
       </c>
     </row>
     <row r="112" spans="20:22">
       <c r="T112" s="6">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="U112" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V112" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="U112" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V112" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task25' onclick='changeStatusTask25()'&gt;&lt;/i&gt;&lt;div id='statusTextTask25' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask25'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask25()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="113" spans="20:22">
       <c r="T113" s="6">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="U113" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V113" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="U113" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V113" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="114" spans="20:22">
       <c r="T114" s="6">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="U114" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V114" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="U114" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V114" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="115" spans="20:22">
       <c r="T115" s="6">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="U115" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V115" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="U115" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V115" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Credits: Balance check&lt;/div&gt;</v>
       </c>
     </row>
     <row r="116" spans="20:22">
       <c r="T116" s="6">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="U116" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V116" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="U116" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V116" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Creditos impositivos - posiciones meses anteriores&lt;/div&gt;</v>
       </c>
     </row>
     <row r="117" spans="20:22">
       <c r="T117" s="6">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="U117" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V117" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="U117" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V117" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task26' onclick='changeStatusTask26()'&gt;&lt;/i&gt;&lt;div id='statusTextTask26' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask26'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask26()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="118" spans="20:22">
       <c r="T118" s="6">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="U118" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V118" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>26</v>
-      </c>
-      <c r="U118" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V118" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="119" spans="20:22">
       <c r="T119" s="6">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="U119" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V119" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="U119" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V119" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="120" spans="20:22">
       <c r="T120" s="6">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="U120" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V120" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="U120" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V120" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;VAT Credits - Liabilities&lt;/div&gt;</v>
       </c>
     </row>
     <row r="121" spans="20:22">
       <c r="T121" s="6">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="U121" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V121" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="U121" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V121" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;IVA Debito Fiscal del periodo&lt;/div&gt;</v>
       </c>
     </row>
     <row r="122" spans="20:22">
       <c r="T122" s="6">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="U122" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V122" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="U122" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V122" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task27' onclick='changeStatusTask27()'&gt;&lt;/i&gt;&lt;div id='statusTextTask27' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask27'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask27()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="123" spans="20:22">
       <c r="T123" s="6">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="U123" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V123" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>27</v>
-      </c>
-      <c r="U123" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V123" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="124" spans="20:22">
       <c r="T124" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="U124" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V124" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="U124" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V124" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="125" spans="20:22">
       <c r="T125" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="U125" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V125" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="U125" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V125" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Prepayments&lt;/div&gt;</v>
       </c>
     </row>
     <row r="126" spans="20:22">
       <c r="T126" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="U126" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V126" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="U126" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V126" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Anticipo de impuestos&lt;/div&gt;</v>
       </c>
     </row>
     <row r="127" spans="20:22">
       <c r="T127" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="U127" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V127" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="U127" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V127" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task28' onclick='changeStatusTask28()'&gt;&lt;/i&gt;&lt;div id='statusTextTask28' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask28'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask28()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="128" spans="20:22">
       <c r="T128" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="U128" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V128" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>28</v>
-      </c>
-      <c r="U128" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V128" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="129" spans="20:22">
       <c r="T129" s="6">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="U129" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V129" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="U129" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V129" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="130" spans="20:22">
       <c r="T130" s="6">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="U130" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V130" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="U130" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V130" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Tax Withholdings&lt;/div&gt;</v>
       </c>
     </row>
     <row r="131" spans="20:22">
       <c r="T131" s="6">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="U131" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V131" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="U131" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V131" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Anticipo de impuestos&lt;/div&gt;</v>
       </c>
     </row>
     <row r="132" spans="20:22">
       <c r="T132" s="6">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="U132" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V132" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="U132" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V132" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task29' onclick='changeStatusTask29()'&gt;&lt;/i&gt;&lt;div id='statusTextTask29' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask29'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask29()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="133" spans="20:22">
       <c r="T133" s="6">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="U133" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V133" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>29</v>
-      </c>
-      <c r="U133" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V133" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="134" spans="20:22">
       <c r="T134" s="6">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="U134" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V134" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="U134" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V134" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="135" spans="20:22">
       <c r="T135" s="6">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="U135" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V135" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="U135" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V135" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Inventory Prepayments&lt;/div&gt;</v>
       </c>
     </row>
     <row r="136" spans="20:22">
       <c r="T136" s="6">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="U136" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V136" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="U136" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V136" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Anticipo a despachantes y aduana&lt;/div&gt;</v>
       </c>
     </row>
     <row r="137" spans="20:22">
       <c r="T137" s="6">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="U137" s="6">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="V137" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="U137" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="V137" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;i id='task30' onclick='changeStatusTask30()'&gt;&lt;/i&gt;&lt;div id='statusTextTask30' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask30'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask30()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="138" spans="20:22">
       <c r="T138" s="6">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="U138" s="6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V138" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>30</v>
-      </c>
-      <c r="U138" s="6">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="V138" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="139" spans="20:22">
       <c r="T139" s="6">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="U139" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V139" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="U139" s="6">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V139" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="140" spans="20:22">
       <c r="T140" s="6">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="U140" s="6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V140" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="U140" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="V140" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Suppliers Prepayments&lt;/div&gt;</v>
       </c>
     </row>
     <row r="141" spans="20:22">
       <c r="T141" s="6">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="U141" s="6">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V141" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="U141" s="6">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="V141" s="10" t="str">
-        <f t="shared" si="15"/>
         <v>&lt;div class='description'&gt;Anticipo a proveedores&lt;/div&gt;</v>
       </c>
     </row>
     <row r="142" spans="20:22">
       <c r="T142" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V142" s="10" t="str">
-        <f t="shared" ref="V142:V205" si="18">VLOOKUP(T142,$L:$Q,U142+1,FALSE)</f>
+        <f t="shared" ref="V142:V205" si="19">VLOOKUP(T142,$L:$Q,U142+1,FALSE)</f>
         <v>&lt;i id='task31' onclick='changeStatusTask31()'&gt;&lt;/i&gt;&lt;div id='statusTextTask31' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask31'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask31()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="143" spans="20:22">
       <c r="T143" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V143" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="144" spans="20:22">
       <c r="T144" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V144" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="145" spans="20:22">
       <c r="T145" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V145" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Employee Prepayments&lt;/div&gt;</v>
       </c>
     </row>
     <row r="146" spans="20:22">
       <c r="T146" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V146" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Anticipo a empleados por viajes &lt;/div&gt;</v>
       </c>
     </row>
     <row r="147" spans="20:22">
       <c r="T147" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V147" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task32' onclick='changeStatusTask32()'&gt;&lt;/i&gt;&lt;div id='statusTextTask32' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask32'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask32()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="148" spans="20:22">
       <c r="T148" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V148" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="149" spans="20:22">
       <c r="T149" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V149" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="150" spans="20:22">
       <c r="T150" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V150" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Corporate card Prepayments&lt;/div&gt;</v>
       </c>
     </row>
     <row r="151" spans="20:22">
       <c r="T151" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V151" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Anticipo empleados  - tarjetas coorporativos por rendir&lt;/div&gt;</v>
       </c>
     </row>
     <row r="152" spans="20:22">
       <c r="T152" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U152" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V152" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task33' onclick='changeStatusTask33()'&gt;&lt;/i&gt;&lt;div id='statusTextTask33' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask33'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask33()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="153" spans="20:22">
       <c r="T153" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V153" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="154" spans="20:22">
       <c r="T154" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V154" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="155" spans="20:22">
       <c r="T155" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V155" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Social Charges / Payroll Taxes&lt;/div&gt;</v>
       </c>
     </row>
     <row r="156" spans="20:22">
       <c r="T156" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V156" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Cargas Sociales y payroll taxes del periodo por pagar&lt;/div&gt;</v>
       </c>
     </row>
     <row r="157" spans="20:22">
       <c r="T157" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V157" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task34' onclick='changeStatusTask34()'&gt;&lt;/i&gt;&lt;div id='statusTextTask34' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask34'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask34()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="158" spans="20:22">
       <c r="T158" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V158" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="159" spans="20:22">
       <c r="T159" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V159" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="160" spans="20:22">
       <c r="T160" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V160" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Accounts Payables&lt;/div&gt;</v>
       </c>
     </row>
     <row r="161" spans="20:22">
       <c r="T161" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V161" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Provision de gastos por pagar&lt;/div&gt;</v>
       </c>
     </row>
     <row r="162" spans="20:22">
       <c r="T162" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V162" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task35' onclick='changeStatusTask35()'&gt;&lt;/i&gt;&lt;div id='statusTextTask35' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask35'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask35()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="163" spans="20:22">
       <c r="T163" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V163" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="164" spans="20:22">
       <c r="T164" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V164" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="165" spans="20:22">
       <c r="T165" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V165" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;P&amp;L Final Overview&lt;/div&gt;</v>
       </c>
     </row>
     <row r="166" spans="20:22">
       <c r="T166" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V166" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Revision de Resultados del mes.&lt;/div&gt;</v>
       </c>
     </row>
     <row r="167" spans="20:22">
       <c r="T167" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V167" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task36' onclick='changeStatusTask36()'&gt;&lt;/i&gt;&lt;div id='statusTextTask36' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask36'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask36()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="168" spans="20:22">
       <c r="T168" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V168" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="169" spans="20:22">
       <c r="T169" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V169" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class="task"&gt;</v>
       </c>
     </row>
     <row r="170" spans="20:22">
       <c r="T170" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V170" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='category'&gt;ACC  &lt;/div&gt;&lt;div class='title'&gt;Income Tax / Deferred Income&lt;/div&gt;</v>
       </c>
     </row>
     <row r="171" spans="20:22">
       <c r="T171" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="V171" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;div class='description'&gt;Calculo de provision de Impuesto a la Renta TRIMESTRAL&lt;/div&gt;</v>
       </c>
     </row>
     <row r="172" spans="20:22">
       <c r="T172" s="6">
-        <f t="shared" ref="T172:T235" si="19">IF(U171&lt;5,T171,T171+1)</f>
+        <f t="shared" ref="T172:T235" si="20">IF(U171&lt;5,T171,T171+1)</f>
         <v>37</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" ref="U172:U235" si="20">IF(U171&lt;5,U171+1,1)</f>
+        <f t="shared" ref="U172:U235" si="21">IF(U171&lt;5,U171+1,1)</f>
         <v>4</v>
       </c>
       <c r="V172" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>&lt;i id='task37' onclick='changeStatusTask37()'&gt;&lt;/i&gt;&lt;div id='statusTextTask37' class='statustext'&gt;Not started    &lt;/div&gt;&lt;div style='display:none' id='backTextTask37'&gt;&lt;img src='volver.png' height='20' width='20' onclick='backStatusTask37()'&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="173" spans="20:22">
       <c r="T173" s="6">
+        <f t="shared" si="20"/>
+        <v>37</v>
+      </c>
+      <c r="U173" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V173" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>37</v>
-      </c>
-      <c r="U173" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V173" s="10" t="str">
-        <f t="shared" si="18"/>
         <v>&lt;/div&gt;</v>
       </c>
     </row>
     <row r="174" spans="20:22">
       <c r="T174" s="6">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="U174" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V174" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="U174" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V174" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="20:22">
       <c r="T175" s="6">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="U175" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V175" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="U175" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V175" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="20:22">
       <c r="T176" s="6">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="U176" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V176" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="U176" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V176" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="20:22">
       <c r="T177" s="6">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="U177" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V177" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="U177" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V177" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="20:22">
       <c r="T178" s="6">
+        <f t="shared" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="U178" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V178" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>38</v>
-      </c>
-      <c r="U178" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V178" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="20:22">
       <c r="T179" s="6">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="U179" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V179" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="U179" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V179" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="20:22">
       <c r="T180" s="6">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="U180" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V180" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="U180" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V180" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="20:22">
       <c r="T181" s="6">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="U181" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V181" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="U181" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V181" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="20:22">
       <c r="T182" s="6">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="U182" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V182" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="U182" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V182" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="20:22">
       <c r="T183" s="6">
+        <f t="shared" si="20"/>
+        <v>39</v>
+      </c>
+      <c r="U183" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V183" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>39</v>
-      </c>
-      <c r="U183" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V183" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="20:22">
       <c r="T184" s="6">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="U184" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V184" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="U184" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V184" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="20:22">
       <c r="T185" s="6">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="U185" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V185" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="U185" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V185" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="20:22">
       <c r="T186" s="6">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="U186" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V186" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="U186" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V186" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="20:22">
       <c r="T187" s="6">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="U187" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V187" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="U187" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V187" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="20:22">
       <c r="T188" s="6">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="U188" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V188" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="U188" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V188" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="20:22">
       <c r="T189" s="6">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="U189" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V189" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="U189" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V189" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="20:22">
       <c r="T190" s="6">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="U190" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V190" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="U190" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V190" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="20:22">
       <c r="T191" s="6">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="U191" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V191" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="U191" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V191" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="20:22">
       <c r="T192" s="6">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="U192" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V192" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="U192" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V192" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="20:22">
       <c r="T193" s="6">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="U193" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V193" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>41</v>
-      </c>
-      <c r="U193" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V193" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="20:22">
       <c r="T194" s="6">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="U194" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V194" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="U194" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V194" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="20:22">
       <c r="T195" s="6">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="U195" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V195" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="U195" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V195" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="20:22">
       <c r="T196" s="6">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="U196" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V196" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="U196" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V196" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="20:22">
       <c r="T197" s="6">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="U197" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V197" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="U197" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V197" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="20:22">
       <c r="T198" s="6">
+        <f t="shared" si="20"/>
+        <v>42</v>
+      </c>
+      <c r="U198" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V198" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>42</v>
-      </c>
-      <c r="U198" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V198" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="20:22">
       <c r="T199" s="6">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="U199" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V199" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="U199" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V199" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="20:22">
       <c r="T200" s="6">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="U200" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V200" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="U200" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V200" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="20:22">
       <c r="T201" s="6">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="U201" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="V201" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="U201" s="6">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="V201" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="20:22">
       <c r="T202" s="6">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="U202" s="6">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V202" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="U202" s="6">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V202" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="20:22">
       <c r="T203" s="6">
+        <f t="shared" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="U203" s="6">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="V203" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>43</v>
-      </c>
-      <c r="U203" s="6">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="V203" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="20:22">
       <c r="T204" s="6">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="U204" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V204" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>44</v>
-      </c>
-      <c r="U204" s="6">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V204" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="20:22">
       <c r="T205" s="6">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="U205" s="6">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="V205" s="10" t="e">
         <f t="shared" si="19"/>
-        <v>44</v>
-      </c>
-      <c r="U205" s="6">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="V205" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="20:22">
       <c r="T206" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="U206" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V206" s="10" t="e">
-        <f t="shared" ref="V206:V237" si="21">VLOOKUP(T206,$L:$Q,U206+1,FALSE)</f>
+        <f t="shared" ref="V206:V237" si="22">VLOOKUP(T206,$L:$Q,U206+1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="20:22">
       <c r="T207" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="U207" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V207" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="20:22">
       <c r="T208" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="U208" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V208" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="20:22">
       <c r="T209" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="U209" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V209" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="20:22">
       <c r="T210" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="U210" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V210" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="20:22">
       <c r="T211" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="U211" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V211" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="212" spans="20:22">
       <c r="T212" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="U212" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V212" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="20:22">
       <c r="T213" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="U213" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V213" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="20:22">
       <c r="T214" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="U214" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V214" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="215" spans="20:22">
       <c r="T215" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="U215" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V215" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="20:22">
       <c r="T216" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="U216" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V216" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="20:22">
       <c r="T217" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="U217" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V217" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="218" spans="20:22">
       <c r="T218" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="U218" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V218" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="20:22">
       <c r="T219" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U219" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V219" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="20:22">
       <c r="T220" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U220" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V220" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="20:22">
       <c r="T221" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U221" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V221" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="222" spans="20:22">
       <c r="T222" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U222" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V222" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="20:22">
       <c r="T223" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="U223" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V223" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="224" spans="20:22">
       <c r="T224" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="U224" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V224" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="225" spans="20:22">
       <c r="T225" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="U225" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V225" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="226" spans="20:22">
       <c r="T226" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="U226" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V226" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="227" spans="20:22">
       <c r="T227" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="U227" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V227" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="20:22">
       <c r="T228" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="U228" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V228" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="229" spans="20:22">
       <c r="T229" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="U229" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V229" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="230" spans="20:22">
       <c r="T230" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="U230" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V230" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="231" spans="20:22">
       <c r="T231" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="U231" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="V231" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="232" spans="20:22">
       <c r="T232" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="U232" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="V232" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="233" spans="20:22">
       <c r="T233" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="U233" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="V233" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="234" spans="20:22">
       <c r="T234" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="U234" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V234" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="235" spans="20:22">
       <c r="T235" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="U235" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="V235" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="236" spans="20:22">
       <c r="T236" s="6">
-        <f t="shared" ref="T236:T237" si="22">IF(U235&lt;5,T235,T235+1)</f>
+        <f t="shared" ref="T236:T237" si="23">IF(U235&lt;5,T235,T235+1)</f>
         <v>50</v>
       </c>
       <c r="U236" s="6">
-        <f t="shared" ref="U236:U237" si="23">IF(U235&lt;5,U235+1,1)</f>
+        <f t="shared" ref="U236:U237" si="24">IF(U235&lt;5,U235+1,1)</f>
         <v>3</v>
       </c>
       <c r="V236" s="10" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="237" spans="20:22">
       <c r="T237" s="6">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="U237" s="6">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="V237" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>50</v>
-      </c>
-      <c r="U237" s="6">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="V237" s="10" t="e">
-        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -7700,12 +7653,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I50">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$J$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7718,7 +7671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H1072"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D561" sqref="D561:D608"/>
     </sheetView>
   </sheetViews>
